--- a/questionnaires/RBDstandardized_questionnaireHHS.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireHHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90941C73-A14F-4739-A129-E60350B08040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB0F82-DA3D-4DC1-B2FC-BEAC912C2E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1710" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>type</t>
   </si>
@@ -141,33 +141,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>noteHHS</t>
-  </si>
-  <si>
-    <t>In the past [4 weeks/30 days], was there ever no food to eat of any kind in your house because of lack of resources to get food?</t>
-  </si>
-  <si>
-    <t>How often did this happen in the past [4 weeks/30 days]?</t>
-  </si>
-  <si>
-    <t>In the past [4 weeks/30 days], did you or any household member  go a whole day and night without eating anything at all becausethere was not enough food?</t>
-  </si>
-  <si>
-    <t>In the past [4 weeks/30 days], did you or any household member go to sleep at night hungry because there was not enough food?</t>
-  </si>
-  <si>
-    <t>Au cours des [4 dernières semaines/30 jours], n'y avait-il aucun aliment à manger à la maison, de quelque nature que ce soit à cause du manque de ressources ?</t>
-  </si>
-  <si>
-    <t>Combien de fois est-ce arrivé au cours des [4 dernières semaines/30 jours] ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au cours des [4 dernières semaines/30 jours], étiez-vous ou tout membre de votre ménage obligé de dormir affamé le soir parce qu’il n’y avait pas assez de nourriture ? </t>
-  </si>
-  <si>
-    <t>Au cours des [4 dernières semaines/30 jours], avez-vous ou tout membre de votre ménage passé un jour et une nuit entière sans rien manger parce qu’il n’y avait pas assez de nourriture ?</t>
-  </si>
-  <si>
     <t>Rarement (1 à 2 fois)</t>
   </si>
   <si>
@@ -177,43 +150,30 @@
     <t>Souvent (plus que 10 fois)</t>
   </si>
   <si>
-    <t>HHhSBedHung_FR</t>
-  </si>
-  <si>
-    <t>HHhSNotEat_FR</t>
-  </si>
-  <si>
-    <t>HHhSNotEat_YN</t>
-  </si>
-  <si>
-    <t>HHhSNoFood_YN</t>
-  </si>
-  <si>
-    <t>HHhSBedHung_YN</t>
-  </si>
-  <si>
-    <t>HHhSNoFood_FR</t>
-  </si>
-  <si>
     <t>standardized_hhsquestionnaire</t>
   </si>
   <si>
-    <t>HOUSEHOLD HUNGER SCALE</t>
+    <t>Minimum Dietary Diversity - Women (MDD-W)</t>
   </si>
   <si>
-    <t>INDICE DOMESTIQUE DE LA FAIM</t>
+    <t>Now I’d like to ask you to describe everything that you ate or drank yesterday during the day or
+night, whether you ate it at home or anywhere else. Please include all foods and drinks, any snacks or
+small meals, as well as any main meals. Remember to include all foods you may have eaten during
+while preparing meals or preparing food for others. Please also include food you eat even if it was
+eaten elsewhere, away from your home. Let’s start with the first food or drink consumed yesterday.
+Did you have anything to eat or drink when you woke up? If yes, what? Anything else?*
+Did you have anything to eat or drink later in the morning? If yes, what? Anything else?*
+Did you eat or drink anything at mid-day? If yes, what? Anything else?*
+Did you have anything to eat or drink during the afternoon? If yes, what? Anything else?*
+Did you have anything to eat in the evening? If yes, what? Anything else?*
+Did you have anything else to eat or drink in the evening before going to bed or during the night? If
+yes, what? Anything else?*</t>
   </si>
   <si>
-    <t>select_one HHSFr</t>
+    <t>noteMDDW</t>
   </si>
   <si>
-    <t>${HHhSNoFood_YN} ='1'</t>
-  </si>
-  <si>
-    <t>${HHhSBedHung_YN} ='1'</t>
-  </si>
-  <si>
-    <t>${HHhSNotEat_YN} ='1'</t>
+    <t>For each eating episode, after the respondent mentions foods and drinks, probe to ask if she ate or drank anything else. Continue probing until she says “no, nothing else”. If the respondent mentions a mixed dish like a soup or stew, ask for all ingredients in the mixed dish. For mixed dishes where it is possible to pick out ingredients or consume only broth, ask if she herself ate each ingredient or if she only had the broth. Continue to probe about ingredients until she says “nothing else”</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1084,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="A64:XFD118"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1202,109 +1162,57 @@
         <v>13</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>53</v>
-      </c>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="50" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="65" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="54" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="4" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+    </row>
+    <row r="5" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="54"/>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>56</v>
-      </c>
+      <c r="A6" s="27"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="54"/>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>57</v>
-      </c>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
@@ -2480,7 +2388,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,7 +2402,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2508,7 +2416,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5052,10 +4960,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>32</v>
@@ -5080,6 +4988,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -5296,36 +5219,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5348,9 +5245,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>